--- a/visualizations/union_results.xlsx
+++ b/visualizations/union_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-integration-github/visualizations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB8B974-2E75-F947-B395-007036507301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66F197C-F2D9-F64B-95CE-3D7DB3816693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67200" yWindow="4880" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
+    <workbookView xWindow="67200" yWindow="5380" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="heuristics" sheetId="10" r:id="rId1"/>
@@ -581,6 +581,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -605,12 +620,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -629,9 +638,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -639,12 +645,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1634,27 +1634,27 @@
     </row>
     <row r="2" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B2" s="32"/>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62" t="s">
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="65"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="70"/>
       <c r="N2" s="7"/>
     </row>
     <row r="3" spans="2:21" ht="41" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="32"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
       <c r="H3" s="41" t="s">
         <v>35</v>
       </c>
@@ -1676,124 +1676,124 @@
       <c r="B4" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="66" t="s">
+      <c r="D4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="67"/>
-      <c r="F4" s="69" t="s">
+      <c r="E4" s="72"/>
+      <c r="F4" s="63" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="71">
+      <c r="H4" s="74">
         <v>0.84199999999999997</v>
       </c>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="73"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="76"/>
       <c r="N4" s="7"/>
     </row>
     <row r="5" spans="2:21" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="70"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="74">
+      <c r="H5" s="77">
         <v>0.86699999999999999</v>
       </c>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="76"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="79"/>
       <c r="N5" s="7"/>
     </row>
     <row r="6" spans="2:21" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="32"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="69" t="s">
+      <c r="D6" s="73"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="63" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="71">
+      <c r="H6" s="74">
         <v>0.88200000000000001</v>
       </c>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="73"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="76"/>
       <c r="N6" s="7"/>
     </row>
     <row r="7" spans="2:21" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="68"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="70"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="65"/>
       <c r="G7" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="74">
+      <c r="H7" s="77">
         <v>0.92700000000000005</v>
       </c>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="76"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="79"/>
       <c r="N7" s="7"/>
     </row>
     <row r="8" spans="2:21" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D8" s="68"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="69" t="s">
+      <c r="D8" s="73"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="63" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="71">
+      <c r="H8" s="74">
         <v>0.87</v>
       </c>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="73"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="76"/>
       <c r="N8" s="7"/>
     </row>
     <row r="9" spans="2:21" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="68"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="77"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="64"/>
       <c r="G9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="78">
+      <c r="H9" s="80">
         <v>0.96199999999999997</v>
       </c>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="80"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="82"/>
       <c r="N9" s="7"/>
     </row>
     <row r="10" spans="2:21" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="69" t="s">
+      <c r="D10" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="69" t="s">
+      <c r="E10" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="81" t="s">
+      <c r="F10" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="82"/>
+      <c r="G10" s="62"/>
       <c r="H10" s="47">
         <v>0.436</v>
       </c>
@@ -1833,9 +1833,9 @@
       </c>
     </row>
     <row r="11" spans="2:21" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77" t="s">
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64" t="s">
         <v>6</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -1880,9 +1880,9 @@
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
       <c r="G12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1905,9 +1905,9 @@
       <c r="P12" s="21"/>
     </row>
     <row r="13" spans="2:21" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="77"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
       <c r="G13" s="9" t="s">
         <v>22</v>
       </c>
@@ -1930,14 +1930,14 @@
       <c r="P13" s="6"/>
     </row>
     <row r="14" spans="2:21" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="77"/>
-      <c r="E14" s="69" t="s">
+      <c r="D14" s="64"/>
+      <c r="E14" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="81" t="s">
+      <c r="F14" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="82"/>
+      <c r="G14" s="62"/>
       <c r="H14" s="48">
         <v>0.41399999999999998</v>
       </c>
@@ -1957,9 +1957,9 @@
       <c r="P14" s="6"/>
     </row>
     <row r="15" spans="2:21" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77" t="s">
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64" t="s">
         <v>6</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -1984,9 +1984,9 @@
       <c r="P15" s="6"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
       <c r="G16" s="1" t="s">
         <v>14</v>
       </c>
@@ -2009,9 +2009,9 @@
       <c r="P16" s="6"/>
     </row>
     <row r="17" spans="4:16" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
       <c r="G17" s="9" t="s">
         <v>22</v>
       </c>
@@ -2086,13 +2086,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="D10:D17"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="F10:G10"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="D4:E9"/>
@@ -2105,6 +2098,13 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="H8:L8"/>
     <mergeCell ref="H9:L9"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="D10:D17"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="F10:G10"/>
   </mergeCells>
   <conditionalFormatting sqref="H4:L17">
     <cfRule type="colorScale" priority="157">
@@ -2127,8 +2127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51B03C0B-9DE5-2F4B-9C2D-1DAFD1F29915}">
   <dimension ref="B1:V33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -2162,27 +2162,27 @@
     </row>
     <row r="2" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B2" s="32"/>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62" t="s">
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="65"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="70"/>
       <c r="N2" s="7"/>
     </row>
     <row r="3" spans="2:22" ht="41" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="32"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
       <c r="H3" s="41" t="s">
         <v>35</v>
       </c>
@@ -2204,121 +2204,121 @@
       <c r="B4" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="66" t="s">
+      <c r="D4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="67"/>
-      <c r="F4" s="69" t="s">
+      <c r="E4" s="72"/>
+      <c r="F4" s="63" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="79">
+      <c r="H4" s="81">
         <v>0.84199999999999997</v>
       </c>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="80"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="82"/>
       <c r="N4" s="7"/>
     </row>
     <row r="5" spans="2:22" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="70"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="75">
+      <c r="H5" s="78">
         <v>0.86699999999999999</v>
       </c>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="76"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="79"/>
       <c r="N5" s="7"/>
     </row>
     <row r="6" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="32"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="69" t="s">
+      <c r="D6" s="73"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="63" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="72">
+      <c r="H6" s="75">
         <v>0.88200000000000001</v>
       </c>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="73"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="76"/>
       <c r="N6" s="7"/>
     </row>
     <row r="7" spans="2:22" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="68"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="70"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="65"/>
       <c r="G7" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="75">
+      <c r="H7" s="78">
         <v>0.92700000000000005</v>
       </c>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="76"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="79"/>
       <c r="N7" s="7"/>
     </row>
     <row r="8" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D8" s="68"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="69" t="s">
+      <c r="D8" s="73"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="63" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="72">
+      <c r="H8" s="75">
         <v>0.87</v>
       </c>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="73"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="76"/>
       <c r="N8" s="7"/>
     </row>
     <row r="9" spans="2:22" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="68"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="77"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="64"/>
       <c r="G9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="79">
+      <c r="H9" s="81">
         <v>0.96199999999999997</v>
       </c>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="80"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="82"/>
       <c r="N9" s="7"/>
     </row>
     <row r="10" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D10" s="69" t="s">
+      <c r="D10" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="69" t="s">
+      <c r="E10" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="69" t="s">
+      <c r="F10" s="63" t="s">
         <v>7</v>
       </c>
       <c r="G10" s="12" t="s">
@@ -2364,9 +2364,9 @@
       <c r="V10" s="2"/>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
       <c r="G11" s="1" t="s">
         <v>14</v>
       </c>
@@ -2410,9 +2410,9 @@
       </c>
     </row>
     <row r="12" spans="2:22" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="77"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
       <c r="G12" s="9" t="s">
         <v>22</v>
       </c>
@@ -2436,11 +2436,11 @@
       <c r="P12" s="8"/>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="D13" s="77"/>
-      <c r="E13" s="69" t="s">
+      <c r="D13" s="64"/>
+      <c r="E13" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="69" t="s">
+      <c r="F13" s="63" t="s">
         <v>7</v>
       </c>
       <c r="G13" s="12" t="s">
@@ -2466,9 +2466,9 @@
       <c r="P13" s="8"/>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
       <c r="G14" s="1" t="s">
         <v>14</v>
       </c>
@@ -2492,9 +2492,9 @@
       <c r="P14" s="8"/>
     </row>
     <row r="15" spans="2:22" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="77"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
       <c r="G15" s="9" t="s">
         <v>22</v>
       </c>
@@ -2518,11 +2518,11 @@
       <c r="P15" s="8"/>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="D16" s="77"/>
-      <c r="E16" s="69" t="s">
+      <c r="D16" s="64"/>
+      <c r="E16" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="77" t="s">
+      <c r="F16" s="64" t="s">
         <v>7</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -2548,9 +2548,9 @@
       <c r="P16" s="8"/>
     </row>
     <row r="17" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
       <c r="G17" s="1" t="s">
         <v>14</v>
       </c>
@@ -2574,9 +2574,9 @@
       <c r="P17" s="8"/>
     </row>
     <row r="18" spans="4:20" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="77"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
       <c r="G18" s="9" t="s">
         <v>22</v>
       </c>
@@ -2601,11 +2601,11 @@
       <c r="T18" s="2"/>
     </row>
     <row r="19" spans="4:20" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D19" s="77"/>
-      <c r="E19" s="68" t="s">
+      <c r="D19" s="64"/>
+      <c r="E19" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="77" t="s">
+      <c r="F19" s="64" t="s">
         <v>7</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -2632,9 +2632,9 @@
       <c r="T19" s="2"/>
     </row>
     <row r="20" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="D20" s="77"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="77"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="64"/>
       <c r="G20" s="1" t="s">
         <v>14</v>
       </c>
@@ -2658,9 +2658,9 @@
       <c r="P20" s="2"/>
     </row>
     <row r="21" spans="4:20" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="70"/>
+      <c r="D21" s="65"/>
       <c r="E21" s="83"/>
-      <c r="F21" s="70"/>
+      <c r="F21" s="65"/>
       <c r="G21" s="9" t="s">
         <v>22</v>
       </c>
@@ -2736,15 +2736,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D10:D21"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="E16:E18"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="D4:E9"/>
@@ -2757,6 +2748,15 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="H8:L8"/>
     <mergeCell ref="H9:L9"/>
+    <mergeCell ref="D10:D21"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="E16:E18"/>
   </mergeCells>
   <conditionalFormatting sqref="H4:L21">
     <cfRule type="colorScale" priority="154">
@@ -2779,7 +2779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D718D1-05D9-2146-B7ED-D601D310FD08}">
   <dimension ref="C1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>

--- a/visualizations/union_results.xlsx
+++ b/visualizations/union_results.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-integration-github/visualizations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66F197C-F2D9-F64B-95CE-3D7DB3816693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194CF908-8CEC-3E49-929C-7B251DD70069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67200" yWindow="5380" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
+    <workbookView xWindow="67200" yWindow="4880" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="heuristics" sheetId="10" r:id="rId1"/>
     <sheet name="llm (hint)" sheetId="14" r:id="rId2"/>
     <sheet name="llm (values)" sheetId="12" r:id="rId3"/>
-    <sheet name="llm-correction" sheetId="9" r:id="rId4"/>
+    <sheet name="llm (cot)" sheetId="15" r:id="rId4"/>
+    <sheet name="llm-correction" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="46">
   <si>
     <t>heuristic</t>
   </si>
@@ -159,6 +160,28 @@
   </si>
   <si>
     <t>FS (CoT)</t>
+  </si>
+  <si>
+    <t>Few-
+Shot</t>
+  </si>
+  <si>
+    <t>hints</t>
+  </si>
+  <si>
+    <t>values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4o-mini </t>
+  </si>
+  <si>
+    <t>qwen-plus</t>
+  </si>
+  <si>
+    <t>4o</t>
+  </si>
+  <si>
+    <t>random</t>
   </si>
 </sst>
 </file>
@@ -399,7 +422,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -533,130 +556,205 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1028,15 +1126,15 @@
       <c r="D3" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="58"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="55"/>
       <c r="N3" s="10"/>
       <c r="O3" s="12" t="s">
         <v>11</v>
@@ -1052,7 +1150,7 @@
       </c>
     </row>
     <row r="4" spans="2:18" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="50" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="12">
@@ -1061,15 +1159,15 @@
       <c r="D4" s="28">
         <v>0.85699999999999998</v>
       </c>
-      <c r="F4" s="56"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57" t="s">
+      <c r="F4" s="53"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="58"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="55"/>
       <c r="N4" s="19" t="s">
         <v>33</v>
       </c>
@@ -1091,15 +1189,15 @@
       </c>
     </row>
     <row r="5" spans="2:18" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="54"/>
+      <c r="B5" s="51"/>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="16">
         <v>0.86699999999999999</v>
       </c>
-      <c r="F5" s="59"/>
-      <c r="G5" s="60"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="57"/>
       <c r="H5" s="1">
         <v>0.5</v>
       </c>
@@ -1137,14 +1235,14 @@
       </c>
     </row>
     <row r="6" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="54"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="1">
         <v>3</v>
       </c>
       <c r="D6" s="16">
         <v>0.85699999999999998</v>
       </c>
-      <c r="F6" s="54" t="s">
+      <c r="F6" s="51" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="1">
@@ -1173,14 +1271,14 @@
       <c r="R6" s="7"/>
     </row>
     <row r="7" spans="2:18" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="54"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="1">
         <v>4</v>
       </c>
       <c r="D7" s="16">
         <v>0.84199999999999997</v>
       </c>
-      <c r="F7" s="54"/>
+      <c r="F7" s="51"/>
       <c r="G7" s="1">
         <v>2</v>
       </c>
@@ -1207,14 +1305,14 @@
       <c r="R7" s="15"/>
     </row>
     <row r="8" spans="2:18" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="55"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="9">
         <v>5</v>
       </c>
       <c r="D8" s="18">
         <v>0.84199999999999997</v>
       </c>
-      <c r="F8" s="54"/>
+      <c r="F8" s="51"/>
       <c r="G8" s="1">
         <v>3</v>
       </c>
@@ -1241,7 +1339,7 @@
       <c r="R8" s="15"/>
     </row>
     <row r="9" spans="2:18" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="50" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="12">
@@ -1250,7 +1348,7 @@
       <c r="D9" s="28">
         <v>0.88200000000000001</v>
       </c>
-      <c r="F9" s="54"/>
+      <c r="F9" s="51"/>
       <c r="G9" s="1">
         <v>4</v>
       </c>
@@ -1272,14 +1370,14 @@
       <c r="M9" s="15"/>
     </row>
     <row r="10" spans="2:18" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="54"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="1">
         <v>0.6</v>
       </c>
       <c r="D10" s="16">
         <v>0.90200000000000002</v>
       </c>
-      <c r="F10" s="55"/>
+      <c r="F10" s="52"/>
       <c r="G10" s="9">
         <v>5</v>
       </c>
@@ -1301,7 +1399,7 @@
       <c r="M10" s="15"/>
     </row>
     <row r="11" spans="2:18" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="54"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="1">
         <v>0.7</v>
       </c>
@@ -1311,7 +1409,7 @@
       <c r="M11" s="15"/>
     </row>
     <row r="12" spans="2:18" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="54"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="1">
         <v>0.8</v>
       </c>
@@ -1321,7 +1419,7 @@
       <c r="M12" s="2"/>
     </row>
     <row r="13" spans="2:18" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="55"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="9">
         <v>0.9</v>
       </c>
@@ -1600,7 +1698,7 @@
   <dimension ref="B1:U29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -1634,27 +1732,27 @@
     </row>
     <row r="2" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B2" s="32"/>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67" t="s">
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="70"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="62"/>
       <c r="N2" s="7"/>
     </row>
     <row r="3" spans="2:21" ht="41" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="32"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
       <c r="H3" s="41" t="s">
         <v>35</v>
       </c>
@@ -1676,125 +1774,125 @@
       <c r="B4" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="71" t="s">
+      <c r="D4" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="72"/>
-      <c r="F4" s="63" t="s">
+      <c r="E4" s="64"/>
+      <c r="F4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="74">
+      <c r="H4" s="68">
         <v>0.84199999999999997</v>
       </c>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="76"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="70"/>
       <c r="N4" s="7"/>
     </row>
     <row r="5" spans="2:21" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="73"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="67"/>
       <c r="G5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="77">
+      <c r="H5" s="71">
         <v>0.86699999999999999</v>
       </c>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="79"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="73"/>
       <c r="N5" s="7"/>
     </row>
     <row r="6" spans="2:21" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="32"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="63" t="s">
+      <c r="D6" s="65"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="66" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="74">
+      <c r="H6" s="68">
         <v>0.88200000000000001</v>
       </c>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="76"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="70"/>
       <c r="N6" s="7"/>
     </row>
     <row r="7" spans="2:21" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="73"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="67"/>
       <c r="G7" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="77">
+      <c r="H7" s="71">
         <v>0.92700000000000005</v>
       </c>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="79"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="73"/>
       <c r="N7" s="7"/>
     </row>
     <row r="8" spans="2:21" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D8" s="73"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="63" t="s">
+      <c r="D8" s="65"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="66" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="74">
+      <c r="H8" s="68">
         <v>0.87</v>
       </c>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="76"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="70"/>
       <c r="N8" s="7"/>
     </row>
     <row r="9" spans="2:21" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="73"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="64"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="74"/>
       <c r="G9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="80">
+      <c r="H9" s="75">
         <v>0.96199999999999997</v>
       </c>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="82"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="77"/>
       <c r="N9" s="7"/>
     </row>
     <row r="10" spans="2:21" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="63" t="s">
+      <c r="D10" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="63" t="s">
+      <c r="E10" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="61" t="s">
+      <c r="F10" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="62"/>
-      <c r="H10" s="47">
+      <c r="G10" s="79"/>
+      <c r="H10" s="45">
         <v>0.436</v>
       </c>
       <c r="I10" s="37">
@@ -1833,15 +1931,15 @@
       </c>
     </row>
     <row r="11" spans="2:21" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64" t="s">
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74" t="s">
         <v>6</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="48">
+      <c r="H11" s="46">
         <v>0.54400000000000004</v>
       </c>
       <c r="I11" s="2">
@@ -1880,13 +1978,13 @@
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
       <c r="G12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="48">
+      <c r="H12" s="46">
         <v>0.50600000000000001</v>
       </c>
       <c r="I12" s="2">
@@ -1905,13 +2003,13 @@
       <c r="P12" s="21"/>
     </row>
     <row r="13" spans="2:21" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="64"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
       <c r="G13" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="51">
+      <c r="H13" s="49">
         <v>0.47599999999999998</v>
       </c>
       <c r="I13" s="39">
@@ -1930,15 +2028,15 @@
       <c r="P13" s="6"/>
     </row>
     <row r="14" spans="2:21" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="64"/>
-      <c r="E14" s="63" t="s">
+      <c r="D14" s="74"/>
+      <c r="E14" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="61" t="s">
+      <c r="F14" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="62"/>
-      <c r="H14" s="48">
+      <c r="G14" s="79"/>
+      <c r="H14" s="46">
         <v>0.41399999999999998</v>
       </c>
       <c r="I14" s="2">
@@ -1957,15 +2055,15 @@
       <c r="P14" s="6"/>
     </row>
     <row r="15" spans="2:21" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64" t="s">
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74" t="s">
         <v>6</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="48">
+      <c r="H15" s="46">
         <v>0.38300000000000001</v>
       </c>
       <c r="I15" s="2">
@@ -1984,13 +2082,13 @@
       <c r="P15" s="6"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
       <c r="G16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="48">
+      <c r="H16" s="46">
         <v>0.39100000000000001</v>
       </c>
       <c r="I16" s="2">
@@ -2009,13 +2107,13 @@
       <c r="P16" s="6"/>
     </row>
     <row r="17" spans="4:16" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
       <c r="G17" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="51">
+      <c r="H17" s="49">
         <v>0.373</v>
       </c>
       <c r="I17" s="39">
@@ -2086,6 +2184,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="D10:D17"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="F10:G10"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="D4:E9"/>
@@ -2098,13 +2203,6 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="H8:L8"/>
     <mergeCell ref="H9:L9"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="D10:D17"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="F10:G10"/>
   </mergeCells>
   <conditionalFormatting sqref="H4:L17">
     <cfRule type="colorScale" priority="157">
@@ -2128,7 +2226,7 @@
   <dimension ref="B1:V33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -2162,27 +2260,27 @@
     </row>
     <row r="2" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B2" s="32"/>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67" t="s">
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="70"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="62"/>
       <c r="N2" s="7"/>
     </row>
     <row r="3" spans="2:22" ht="41" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="32"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
       <c r="H3" s="41" t="s">
         <v>35</v>
       </c>
@@ -2201,124 +2299,124 @@
       <c r="N3" s="7"/>
     </row>
     <row r="4" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="71" t="s">
+      <c r="D4" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="72"/>
-      <c r="F4" s="63" t="s">
+      <c r="E4" s="64"/>
+      <c r="F4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="81">
+      <c r="H4" s="76">
         <v>0.84199999999999997</v>
       </c>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="82"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="77"/>
       <c r="N4" s="7"/>
     </row>
     <row r="5" spans="2:22" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="73"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="67"/>
       <c r="G5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="78">
+      <c r="H5" s="72">
         <v>0.86699999999999999</v>
       </c>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="79"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="73"/>
       <c r="N5" s="7"/>
     </row>
     <row r="6" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="32"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="63" t="s">
+      <c r="D6" s="65"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="66" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="75">
+      <c r="H6" s="69">
         <v>0.88200000000000001</v>
       </c>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="76"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="70"/>
       <c r="N6" s="7"/>
     </row>
     <row r="7" spans="2:22" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="73"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="67"/>
       <c r="G7" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="78">
+      <c r="H7" s="72">
         <v>0.92700000000000005</v>
       </c>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="79"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="73"/>
       <c r="N7" s="7"/>
     </row>
     <row r="8" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D8" s="73"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="63" t="s">
+      <c r="D8" s="65"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="66" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="75">
+      <c r="H8" s="69">
         <v>0.87</v>
       </c>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="76"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="70"/>
       <c r="N8" s="7"/>
     </row>
     <row r="9" spans="2:22" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="73"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="64"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="74"/>
       <c r="G9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="81">
+      <c r="H9" s="76">
         <v>0.96199999999999997</v>
       </c>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="82"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="77"/>
       <c r="N9" s="7"/>
     </row>
     <row r="10" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D10" s="63" t="s">
+      <c r="D10" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="63" t="s">
+      <c r="E10" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="63" t="s">
+      <c r="F10" s="66" t="s">
         <v>7</v>
       </c>
       <c r="G10" s="12" t="s">
@@ -2341,32 +2439,17 @@
       </c>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
-      <c r="Q10" s="2">
-        <f>AVERAGE(H10:H12)</f>
-        <v>0.57900000000000007</v>
-      </c>
-      <c r="R10" s="2">
-        <f t="shared" ref="R10:U10" si="0">AVERAGE(I10:I12)</f>
-        <v>0.6166666666666667</v>
-      </c>
-      <c r="S10" s="2">
-        <f t="shared" si="0"/>
-        <v>0.77266666666666672</v>
-      </c>
-      <c r="T10" s="2">
-        <f t="shared" si="0"/>
-        <v>0.8696666666666667</v>
-      </c>
-      <c r="U10" s="2">
-        <f t="shared" si="0"/>
-        <v>0.8846666666666666</v>
-      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
       <c r="V10" s="2"/>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
       <c r="G11" s="1" t="s">
         <v>14</v>
       </c>
@@ -2388,31 +2471,16 @@
       <c r="N11" s="4"/>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
-      <c r="Q11" s="2">
-        <f>AVERAGE(H16:H18)</f>
-        <v>0.47100000000000003</v>
-      </c>
-      <c r="R11" s="2">
-        <f t="shared" ref="R11:U11" si="1">AVERAGE(I16:I18)</f>
-        <v>0.68066666666666664</v>
-      </c>
-      <c r="S11" s="2">
-        <f t="shared" si="1"/>
-        <v>0.81866666666666665</v>
-      </c>
-      <c r="T11" s="2">
-        <f t="shared" si="1"/>
-        <v>0.90166666666666673</v>
-      </c>
-      <c r="U11" s="2">
-        <f t="shared" si="1"/>
-        <v>0.86399999999999999</v>
-      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
     </row>
     <row r="12" spans="2:22" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="64"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
       <c r="G12" s="9" t="s">
         <v>22</v>
       </c>
@@ -2436,11 +2504,11 @@
       <c r="P12" s="8"/>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="D13" s="64"/>
-      <c r="E13" s="63" t="s">
+      <c r="D13" s="74"/>
+      <c r="E13" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="63" t="s">
+      <c r="F13" s="66" t="s">
         <v>7</v>
       </c>
       <c r="G13" s="12" t="s">
@@ -2466,9 +2534,9 @@
       <c r="P13" s="8"/>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
       <c r="G14" s="1" t="s">
         <v>14</v>
       </c>
@@ -2492,9 +2560,9 @@
       <c r="P14" s="8"/>
     </row>
     <row r="15" spans="2:22" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="64"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
       <c r="G15" s="9" t="s">
         <v>22</v>
       </c>
@@ -2518,11 +2586,11 @@
       <c r="P15" s="8"/>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="D16" s="64"/>
-      <c r="E16" s="63" t="s">
+      <c r="D16" s="74"/>
+      <c r="E16" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="64" t="s">
+      <c r="F16" s="74" t="s">
         <v>7</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -2548,9 +2616,9 @@
       <c r="P16" s="8"/>
     </row>
     <row r="17" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
       <c r="G17" s="1" t="s">
         <v>14</v>
       </c>
@@ -2574,9 +2642,9 @@
       <c r="P17" s="8"/>
     </row>
     <row r="18" spans="4:20" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="64"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
       <c r="G18" s="9" t="s">
         <v>22</v>
       </c>
@@ -2601,11 +2669,11 @@
       <c r="T18" s="2"/>
     </row>
     <row r="19" spans="4:20" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D19" s="64"/>
-      <c r="E19" s="73" t="s">
+      <c r="D19" s="74"/>
+      <c r="E19" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="64" t="s">
+      <c r="F19" s="74" t="s">
         <v>7</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -2632,9 +2700,9 @@
       <c r="T19" s="2"/>
     </row>
     <row r="20" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="D20" s="64"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="64"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="74"/>
       <c r="G20" s="1" t="s">
         <v>14</v>
       </c>
@@ -2658,9 +2726,9 @@
       <c r="P20" s="2"/>
     </row>
     <row r="21" spans="4:20" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="65"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="65"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="67"/>
       <c r="G21" s="9" t="s">
         <v>22</v>
       </c>
@@ -2736,6 +2804,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D10:D21"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="E16:E18"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="D4:E9"/>
@@ -2748,15 +2825,6 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="H8:L8"/>
     <mergeCell ref="H9:L9"/>
-    <mergeCell ref="D10:D21"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="E16:E18"/>
   </mergeCells>
   <conditionalFormatting sqref="H4:L21">
     <cfRule type="colorScale" priority="154">
@@ -2776,11 +2844,313 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D718D1-05D9-2146-B7ED-D601D310FD08}">
-  <dimension ref="C1:H12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DAE3E00-5AB9-844C-A5F1-B504AC1D8CBB}">
+  <dimension ref="B1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="J33" sqref="J33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="5" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="L1" s="7"/>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B2" s="32"/>
+      <c r="D2" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="62"/>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="2:14" ht="41" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="32"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="7"/>
+    </row>
+    <row r="4" spans="2:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="64"/>
+      <c r="F4" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="76">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="I4" s="76"/>
+      <c r="J4" s="77"/>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="2:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="65"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="72">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="I5" s="72"/>
+      <c r="J5" s="73"/>
+      <c r="L5" s="7"/>
+    </row>
+    <row r="6" spans="2:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="32"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="69">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="I6" s="69"/>
+      <c r="J6" s="70"/>
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" spans="2:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="65"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="72">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="I7" s="72"/>
+      <c r="J7" s="73"/>
+      <c r="L7" s="7"/>
+    </row>
+    <row r="8" spans="2:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="65"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="69">
+        <v>0.87</v>
+      </c>
+      <c r="I8" s="69"/>
+      <c r="J8" s="70"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="2:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="65"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="76">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="I9" s="76"/>
+      <c r="J9" s="77"/>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="2:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="84"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="87"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D11" s="65"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="89"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="2:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="80"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="93"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="L13" s="4"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="L14" s="4"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="L15" s="4"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+    </row>
+    <row r="22" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+    </row>
+    <row r="24" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="D10:F12"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="D2:G3"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="D4:E9"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="F8:F9"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H4:J9">
+    <cfRule type="colorScale" priority="161">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+        <color theme="6" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10:J12">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color theme="6" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D718D1-05D9-2146-B7ED-D601D310FD08}">
+  <dimension ref="C1:R14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -2790,197 +3160,262 @@
     <col min="3" max="3" width="6.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="9" style="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="9" style="1" customWidth="1"/>
+    <col min="21" max="21" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" ht="20" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="3:8" ht="41" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="84"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="45" t="s">
+    <row r="1" spans="3:18" ht="20" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C2" s="81"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="46" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C3" s="59" t="s">
+      <c r="F2" s="105" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="100"/>
+      <c r="H2" s="105" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="99"/>
+      <c r="J2" s="105" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="100"/>
+    </row>
+    <row r="3" spans="3:18" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="95"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="101" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="107" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="101" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="103" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="106" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="104"/>
+    </row>
+    <row r="4" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C4" s="81" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="97"/>
+      <c r="E4" s="108">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="F4" s="109">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="I4" s="109"/>
+      <c r="J4" s="109">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="K4" s="110"/>
+      <c r="L4" s="104"/>
+    </row>
+    <row r="5" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C5" s="56" t="s">
         <v>33</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="47">
-        <v>0.84199999999999997</v>
-      </c>
-      <c r="F3" s="12">
-        <v>0.877</v>
-      </c>
-      <c r="G3" s="37">
-        <v>0.92</v>
-      </c>
-      <c r="H3" s="13">
-        <v>0.89700000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C4" s="59"/>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="48">
-        <v>0.92700000000000005</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.95499999999999996</v>
-      </c>
-      <c r="H4" s="14">
-        <v>0.93500000000000005</v>
-      </c>
-    </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C5" s="59" t="s">
-        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="48">
+      <c r="E5" s="46">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="F5" s="98">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="G5" s="98">
+        <v>0.877</v>
+      </c>
+      <c r="H5" s="98">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="I5" s="98">
+        <v>0.92</v>
+      </c>
+      <c r="J5" s="98">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="K5" s="111">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="L5" s="104"/>
+    </row>
+    <row r="6" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C6" s="56"/>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="46">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="F6" s="98">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="G6" s="98">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="H6" s="98">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="I6" s="98">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="J6" s="98">
+        <v>0.9</v>
+      </c>
+      <c r="K6" s="42">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="L6" s="104"/>
+    </row>
+    <row r="7" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C7" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="46">
         <v>0.87</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F7" s="98">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="G7" s="98">
         <v>0.92500000000000004</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H7" s="98">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="I7" s="98">
         <v>0.95</v>
       </c>
-      <c r="H5" s="14">
+      <c r="J7" s="98">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="K7" s="42">
         <v>0.94699999999999995</v>
       </c>
-    </row>
-    <row r="6" spans="3:8" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="86"/>
-      <c r="D6" s="9" t="s">
+      <c r="L7" s="104"/>
+    </row>
+    <row r="8" spans="3:18" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="82"/>
+      <c r="D8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="51">
+      <c r="E8" s="49">
         <v>0.96199999999999997</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F8" s="39">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="G8" s="39">
         <v>0.95699999999999996</v>
       </c>
-      <c r="G6" s="9">
+      <c r="H8" s="39">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="I8" s="39">
         <v>0.96499999999999997</v>
       </c>
-      <c r="H6" s="52">
+      <c r="J8" s="39">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="K8" s="40">
         <v>0.94199999999999995</v>
       </c>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="F8" s="2">
-        <f>(F3-$E3)/$E3</f>
-        <v>4.1567695961995291E-2</v>
-      </c>
-      <c r="G8" s="2">
-        <f t="shared" ref="G8:H8" si="0">(G3-$E3)/$E3</f>
-        <v>9.2636579572446642E-2</v>
-      </c>
-      <c r="H8" s="2">
-        <f t="shared" si="0"/>
-        <v>6.5320665083135457E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="F9" s="2">
-        <f t="shared" ref="F9:H11" si="1">(F4-$E4)/$E4</f>
-        <v>1.9417475728155238E-2</v>
-      </c>
-      <c r="G9" s="2">
-        <f t="shared" si="1"/>
-        <v>3.0204962243797102E-2</v>
-      </c>
-      <c r="H9" s="2">
-        <f t="shared" si="1"/>
-        <v>8.6299892125134923E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="F10" s="2">
-        <f t="shared" si="1"/>
-        <v>6.3218390804597763E-2</v>
-      </c>
-      <c r="G10" s="2">
-        <f t="shared" si="1"/>
-        <v>9.1954022988505704E-2</v>
-      </c>
-      <c r="H10" s="2">
-        <f t="shared" si="1"/>
-        <v>8.8505747126436732E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="F11" s="2">
-        <f t="shared" si="1"/>
-        <v>-5.1975051975052021E-3</v>
-      </c>
-      <c r="G11" s="2">
-        <f t="shared" si="1"/>
-        <v>3.1185031185031213E-3</v>
-      </c>
-      <c r="H11" s="2">
-        <f t="shared" si="1"/>
-        <v>-2.0790020790020809E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="E12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="2">
-        <f>AVERAGE(F8:F11)</f>
-        <v>2.9751514324310772E-2</v>
-      </c>
-      <c r="G12" s="2">
-        <f t="shared" ref="G12:H12" si="2">AVERAGE(G8:G11)</f>
-        <v>5.4478516980813137E-2</v>
-      </c>
-      <c r="H12" s="2">
-        <f t="shared" si="2"/>
-        <v>3.5416595158016213E-2</v>
-      </c>
+      <c r="L8" s="104"/>
+    </row>
+    <row r="9" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
+    </row>
+    <row r="10" spans="3:18" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="104"/>
+      <c r="R10" s="104"/>
+    </row>
+    <row r="11" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="3:18" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:C4"/>
+  <mergeCells count="8">
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
   </mergeCells>
-  <conditionalFormatting sqref="E3:H6">
-    <cfRule type="colorScale" priority="155">
+  <conditionalFormatting sqref="E4:K8">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/visualizations/union_results.xlsx
+++ b/visualizations/union_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-integration-github/visualizations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194CF908-8CEC-3E49-929C-7B251DD70069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C81797-C517-7C4E-AB36-D0C637F29110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67200" yWindow="4880" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
+    <workbookView xWindow="67200" yWindow="4880" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="heuristics" sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="48">
   <si>
     <t>heuristic</t>
   </si>
@@ -156,12 +156,6 @@
 ($2.5/M)</t>
   </si>
   <si>
-    <t>ZS (CoT)</t>
-  </si>
-  <si>
-    <t>FS (CoT)</t>
-  </si>
-  <si>
     <t>Few-
 Shot</t>
   </si>
@@ -182,6 +176,18 @@
   </si>
   <si>
     <t>random</t>
+  </si>
+  <si>
+    <t>worst single</t>
+  </si>
+  <si>
+    <t>worst duo</t>
+  </si>
+  <si>
+    <t>best single</t>
+  </si>
+  <si>
+    <t>best duo</t>
   </si>
 </sst>
 </file>
@@ -571,6 +577,42 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -661,101 +703,65 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1126,15 +1132,15 @@
       <c r="D3" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="55"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="67"/>
       <c r="N3" s="10"/>
       <c r="O3" s="12" t="s">
         <v>11</v>
@@ -1150,7 +1156,7 @@
       </c>
     </row>
     <row r="4" spans="2:18" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="62" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="12">
@@ -1159,15 +1165,15 @@
       <c r="D4" s="28">
         <v>0.85699999999999998</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54" t="s">
+      <c r="F4" s="65"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="55"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="67"/>
       <c r="N4" s="19" t="s">
         <v>33</v>
       </c>
@@ -1189,15 +1195,15 @@
       </c>
     </row>
     <row r="5" spans="2:18" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="51"/>
+      <c r="B5" s="63"/>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="16">
         <v>0.86699999999999999</v>
       </c>
-      <c r="F5" s="56"/>
-      <c r="G5" s="57"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="69"/>
       <c r="H5" s="1">
         <v>0.5</v>
       </c>
@@ -1235,14 +1241,14 @@
       </c>
     </row>
     <row r="6" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="51"/>
+      <c r="B6" s="63"/>
       <c r="C6" s="1">
         <v>3</v>
       </c>
       <c r="D6" s="16">
         <v>0.85699999999999998</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="63" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="1">
@@ -1271,14 +1277,14 @@
       <c r="R6" s="7"/>
     </row>
     <row r="7" spans="2:18" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="51"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="1">
         <v>4</v>
       </c>
       <c r="D7" s="16">
         <v>0.84199999999999997</v>
       </c>
-      <c r="F7" s="51"/>
+      <c r="F7" s="63"/>
       <c r="G7" s="1">
         <v>2</v>
       </c>
@@ -1305,14 +1311,14 @@
       <c r="R7" s="15"/>
     </row>
     <row r="8" spans="2:18" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="52"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="9">
         <v>5</v>
       </c>
       <c r="D8" s="18">
         <v>0.84199999999999997</v>
       </c>
-      <c r="F8" s="51"/>
+      <c r="F8" s="63"/>
       <c r="G8" s="1">
         <v>3</v>
       </c>
@@ -1339,7 +1345,7 @@
       <c r="R8" s="15"/>
     </row>
     <row r="9" spans="2:18" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="62" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="12">
@@ -1348,7 +1354,7 @@
       <c r="D9" s="28">
         <v>0.88200000000000001</v>
       </c>
-      <c r="F9" s="51"/>
+      <c r="F9" s="63"/>
       <c r="G9" s="1">
         <v>4</v>
       </c>
@@ -1370,14 +1376,14 @@
       <c r="M9" s="15"/>
     </row>
     <row r="10" spans="2:18" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="51"/>
+      <c r="B10" s="63"/>
       <c r="C10" s="1">
         <v>0.6</v>
       </c>
       <c r="D10" s="16">
         <v>0.90200000000000002</v>
       </c>
-      <c r="F10" s="52"/>
+      <c r="F10" s="64"/>
       <c r="G10" s="9">
         <v>5</v>
       </c>
@@ -1399,7 +1405,7 @@
       <c r="M10" s="15"/>
     </row>
     <row r="11" spans="2:18" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="51"/>
+      <c r="B11" s="63"/>
       <c r="C11" s="1">
         <v>0.7</v>
       </c>
@@ -1409,7 +1415,7 @@
       <c r="M11" s="15"/>
     </row>
     <row r="12" spans="2:18" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="51"/>
+      <c r="B12" s="63"/>
       <c r="C12" s="1">
         <v>0.8</v>
       </c>
@@ -1419,7 +1425,7 @@
       <c r="M12" s="2"/>
     </row>
     <row r="13" spans="2:18" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="52"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="9">
         <v>0.9</v>
       </c>
@@ -1698,7 +1704,7 @@
   <dimension ref="B1:U29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+      <selection activeCell="J17" activeCellId="1" sqref="J14:K14 J17:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -1732,27 +1738,27 @@
     </row>
     <row r="2" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B2" s="32"/>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59" t="s">
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="62"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="74"/>
       <c r="N2" s="7"/>
     </row>
     <row r="3" spans="2:21" ht="41" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="32"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
       <c r="H3" s="41" t="s">
         <v>35</v>
       </c>
@@ -1774,124 +1780,124 @@
       <c r="B4" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="66" t="s">
+      <c r="E4" s="76"/>
+      <c r="F4" s="78" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="68">
+      <c r="H4" s="80">
         <v>0.84199999999999997</v>
       </c>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="70"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="82"/>
       <c r="N4" s="7"/>
     </row>
     <row r="5" spans="2:21" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="65"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="67"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="71">
+      <c r="H5" s="83">
         <v>0.86699999999999999</v>
       </c>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="73"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="85"/>
       <c r="N5" s="7"/>
     </row>
     <row r="6" spans="2:21" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="32"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="66" t="s">
+      <c r="D6" s="77"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="78" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="68">
+      <c r="H6" s="80">
         <v>0.88200000000000001</v>
       </c>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="70"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="82"/>
       <c r="N6" s="7"/>
     </row>
     <row r="7" spans="2:21" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="65"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="67"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="71">
+      <c r="H7" s="83">
         <v>0.92700000000000005</v>
       </c>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="73"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="85"/>
       <c r="N7" s="7"/>
     </row>
     <row r="8" spans="2:21" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D8" s="65"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="66" t="s">
+      <c r="D8" s="77"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="78" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="68">
+      <c r="H8" s="80">
         <v>0.87</v>
       </c>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="70"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="82"/>
       <c r="N8" s="7"/>
     </row>
     <row r="9" spans="2:21" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="65"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="74"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="86"/>
       <c r="G9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="75">
+      <c r="H9" s="87">
         <v>0.96199999999999997</v>
       </c>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="77"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="89"/>
       <c r="N9" s="7"/>
     </row>
     <row r="10" spans="2:21" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="66" t="s">
+      <c r="D10" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="66" t="s">
+      <c r="E10" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="78" t="s">
+      <c r="F10" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="79"/>
+      <c r="G10" s="91"/>
       <c r="H10" s="45">
         <v>0.436</v>
       </c>
@@ -1931,9 +1937,9 @@
       </c>
     </row>
     <row r="11" spans="2:21" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74" t="s">
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86" t="s">
         <v>6</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -1978,9 +1984,9 @@
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
       <c r="G12" s="1" t="s">
         <v>14</v>
       </c>
@@ -2003,9 +2009,9 @@
       <c r="P12" s="21"/>
     </row>
     <row r="13" spans="2:21" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="74"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
       <c r="G13" s="9" t="s">
         <v>22</v>
       </c>
@@ -2028,14 +2034,14 @@
       <c r="P13" s="6"/>
     </row>
     <row r="14" spans="2:21" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="74"/>
-      <c r="E14" s="66" t="s">
+      <c r="D14" s="86"/>
+      <c r="E14" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="78" t="s">
+      <c r="F14" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="79"/>
+      <c r="G14" s="91"/>
       <c r="H14" s="46">
         <v>0.41399999999999998</v>
       </c>
@@ -2055,9 +2061,9 @@
       <c r="P14" s="6"/>
     </row>
     <row r="15" spans="2:21" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74" t="s">
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86" t="s">
         <v>6</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -2082,9 +2088,9 @@
       <c r="P15" s="6"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
       <c r="G16" s="1" t="s">
         <v>14</v>
       </c>
@@ -2105,11 +2111,19 @@
       </c>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
-    </row>
-    <row r="17" spans="4:16" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
+      <c r="Q16" s="2">
+        <f>AVERAGE(H10:L13)</f>
+        <v>0.60070000000000001</v>
+      </c>
+      <c r="S16" s="1">
+        <f>(0.918-Q16)/0.918</f>
+        <v>0.3456427015250545</v>
+      </c>
+    </row>
+    <row r="17" spans="4:19" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
       <c r="G17" s="9" t="s">
         <v>22</v>
       </c>
@@ -2130,55 +2144,63 @@
       </c>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
-    </row>
-    <row r="18" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="Q17" s="2">
+        <f>AVERAGE(H14:L17)</f>
+        <v>0.59550000000000003</v>
+      </c>
+      <c r="S17" s="1">
+        <f>(0.918-Q17)/0.918</f>
+        <v>0.35130718954248363</v>
+      </c>
+    </row>
+    <row r="18" spans="4:19" x14ac:dyDescent="0.25">
       <c r="N18" s="4"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
     </row>
-    <row r="19" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:19" x14ac:dyDescent="0.25">
       <c r="N19" s="4"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
     </row>
-    <row r="20" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:19" x14ac:dyDescent="0.25">
       <c r="N20" s="4"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
     </row>
-    <row r="21" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:19" x14ac:dyDescent="0.25">
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
     </row>
-    <row r="22" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:19" x14ac:dyDescent="0.25">
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
     </row>
-    <row r="23" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:19" x14ac:dyDescent="0.25">
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
     </row>
-    <row r="24" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:19" x14ac:dyDescent="0.25">
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
     </row>
-    <row r="25" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:19" x14ac:dyDescent="0.25">
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
     </row>
-    <row r="26" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:19" x14ac:dyDescent="0.25">
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
     </row>
-    <row r="27" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:19" x14ac:dyDescent="0.25">
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
     </row>
-    <row r="28" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:19" x14ac:dyDescent="0.25">
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
     </row>
-    <row r="29" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:19" x14ac:dyDescent="0.25">
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
     </row>
@@ -2223,10 +2245,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51B03C0B-9DE5-2F4B-9C2D-1DAFD1F29915}">
-  <dimension ref="B1:V33"/>
+  <dimension ref="B1:V27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -2260,27 +2282,27 @@
     </row>
     <row r="2" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B2" s="32"/>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59" t="s">
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="62"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="74"/>
       <c r="N2" s="7"/>
     </row>
     <row r="3" spans="2:22" ht="41" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="32"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
       <c r="H3" s="41" t="s">
         <v>35</v>
       </c>
@@ -2302,121 +2324,121 @@
       <c r="B4" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="66" t="s">
+      <c r="E4" s="76"/>
+      <c r="F4" s="78" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="76">
+      <c r="H4" s="88">
         <v>0.84199999999999997</v>
       </c>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="77"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="89"/>
       <c r="N4" s="7"/>
     </row>
     <row r="5" spans="2:22" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="65"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="67"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="72">
+      <c r="H5" s="84">
         <v>0.86699999999999999</v>
       </c>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="73"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="85"/>
       <c r="N5" s="7"/>
     </row>
     <row r="6" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="32"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="66" t="s">
+      <c r="D6" s="77"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="78" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="69">
+      <c r="H6" s="81">
         <v>0.88200000000000001</v>
       </c>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="70"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="82"/>
       <c r="N6" s="7"/>
     </row>
     <row r="7" spans="2:22" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="65"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="67"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="72">
+      <c r="H7" s="84">
         <v>0.92700000000000005</v>
       </c>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="73"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="85"/>
       <c r="N7" s="7"/>
     </row>
     <row r="8" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D8" s="65"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="66" t="s">
+      <c r="D8" s="77"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="78" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="69">
+      <c r="H8" s="81">
         <v>0.87</v>
       </c>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="70"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="82"/>
       <c r="N8" s="7"/>
     </row>
     <row r="9" spans="2:22" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="65"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="74"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="86"/>
       <c r="G9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="76">
+      <c r="H9" s="88">
         <v>0.96199999999999997</v>
       </c>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="77"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="89"/>
       <c r="N9" s="7"/>
     </row>
     <row r="10" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D10" s="66" t="s">
+      <c r="D10" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="66" t="s">
+      <c r="E10" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="66" t="s">
+      <c r="F10" s="78" t="s">
         <v>7</v>
       </c>
       <c r="G10" s="12" t="s">
@@ -2447,9 +2469,9 @@
       <c r="V10" s="2"/>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
       <c r="G11" s="1" t="s">
         <v>14</v>
       </c>
@@ -2478,9 +2500,9 @@
       <c r="U11" s="2"/>
     </row>
     <row r="12" spans="2:22" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="74"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
       <c r="G12" s="9" t="s">
         <v>22</v>
       </c>
@@ -2504,315 +2526,146 @@
       <c r="P12" s="8"/>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="D13" s="74"/>
-      <c r="E13" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="66" t="s">
+      <c r="D13" s="86"/>
+      <c r="E13" s="78" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="37">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="I13" s="37">
-        <v>0.63900000000000001</v>
-      </c>
-      <c r="J13" s="37">
-        <v>0.81</v>
-      </c>
-      <c r="K13" s="37">
-        <v>0.80700000000000005</v>
-      </c>
-      <c r="L13" s="38">
-        <v>0.82699999999999996</v>
+      <c r="H13" s="2">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="L13" s="42">
+        <v>0.82</v>
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
       <c r="G14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H14" s="2">
-        <v>0.58099999999999996</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="I14" s="2">
-        <v>0.627</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="J14" s="2">
-        <v>0.63900000000000001</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="K14" s="2">
-        <v>0.69199999999999995</v>
+        <v>0.91</v>
       </c>
       <c r="L14" s="42">
-        <v>0.64200000000000002</v>
+        <v>0.89</v>
       </c>
       <c r="N14" s="4"/>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
     </row>
     <row r="15" spans="2:22" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="74"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
       <c r="G15" s="9" t="s">
         <v>22</v>
       </c>
       <c r="H15" s="39">
-        <v>0.60899999999999999</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="I15" s="39">
-        <v>0.63200000000000001</v>
+        <v>0.77900000000000003</v>
       </c>
       <c r="J15" s="39">
-        <v>0.79400000000000004</v>
+        <v>0.80500000000000005</v>
       </c>
       <c r="K15" s="39">
-        <v>0.85199999999999998</v>
+        <v>0.96</v>
       </c>
       <c r="L15" s="40">
-        <v>0.85</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="N15" s="4"/>
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
+      <c r="T15" s="2"/>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="D16" s="74"/>
-      <c r="E16" s="66" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0.49099999999999999</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="J16" s="2">
-        <v>0.76900000000000002</v>
-      </c>
-      <c r="K16" s="2">
-        <v>0.83499999999999996</v>
-      </c>
-      <c r="L16" s="42">
-        <v>0.82</v>
-      </c>
       <c r="N16" s="4"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-    </row>
-    <row r="17" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0.45600000000000002</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0.47099999999999997</v>
-      </c>
-      <c r="J17" s="2">
-        <v>0.88200000000000001</v>
-      </c>
-      <c r="K17" s="2">
-        <v>0.91</v>
-      </c>
-      <c r="L17" s="42">
-        <v>0.89</v>
-      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="14:16" x14ac:dyDescent="0.2">
       <c r="N17" s="4"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-    </row>
-    <row r="18" spans="4:20" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="74"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="39">
-        <v>0.46600000000000003</v>
-      </c>
-      <c r="I18" s="39">
-        <v>0.77900000000000003</v>
-      </c>
-      <c r="J18" s="39">
-        <v>0.80500000000000005</v>
-      </c>
-      <c r="K18" s="39">
-        <v>0.96</v>
-      </c>
-      <c r="L18" s="40">
-        <v>0.88200000000000001</v>
-      </c>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="14:16" x14ac:dyDescent="0.2">
       <c r="N18" s="4"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="T18" s="2"/>
-    </row>
-    <row r="19" spans="4:20" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D19" s="74"/>
-      <c r="E19" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0.58599999999999997</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0.79700000000000004</v>
-      </c>
-      <c r="J19" s="2">
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="K19" s="2">
-        <v>0.81200000000000006</v>
-      </c>
-      <c r="L19" s="42">
-        <v>0.82499999999999996</v>
-      </c>
-      <c r="N19" s="4"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="14:16" x14ac:dyDescent="0.2">
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
-      <c r="T19" s="2"/>
-    </row>
-    <row r="20" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="D20" s="74"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0.499</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0.49399999999999999</v>
-      </c>
-      <c r="J20" s="2">
-        <v>0.875</v>
-      </c>
-      <c r="K20" s="2">
-        <v>0.90500000000000003</v>
-      </c>
-      <c r="L20" s="42">
-        <v>0.86199999999999999</v>
-      </c>
-      <c r="N20" s="4"/>
+    </row>
+    <row r="20" spans="14:16" x14ac:dyDescent="0.2">
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="4:20" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="67"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" s="39">
-        <v>0.51900000000000002</v>
-      </c>
-      <c r="I21" s="39">
-        <v>0.75700000000000001</v>
-      </c>
-      <c r="J21" s="39">
-        <v>0.79700000000000004</v>
-      </c>
-      <c r="K21" s="39">
-        <v>0.94699999999999995</v>
-      </c>
-      <c r="L21" s="40">
-        <v>0.91</v>
-      </c>
-      <c r="N21" s="4"/>
+    <row r="21" spans="14:16" x14ac:dyDescent="0.2">
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="N22" s="4"/>
+    <row r="22" spans="14:16" x14ac:dyDescent="0.2">
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="N23" s="4"/>
+    <row r="23" spans="14:16" x14ac:dyDescent="0.2">
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="N24" s="4"/>
+    <row r="24" spans="14:16" x14ac:dyDescent="0.2">
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="14:16" x14ac:dyDescent="0.2">
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="14:16" x14ac:dyDescent="0.2">
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="14:16" x14ac:dyDescent="0.2">
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
     </row>
-    <row r="28" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-    </row>
-    <row r="29" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-    </row>
-    <row r="30" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-    </row>
-    <row r="31" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-    </row>
-    <row r="32" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-    </row>
-    <row r="33" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="D10:D21"/>
+  <mergeCells count="17">
+    <mergeCell ref="D10:D15"/>
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="F10:F12"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="F13:F15"/>
     <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="E16:E18"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="D4:E9"/>
@@ -2826,8 +2679,8 @@
     <mergeCell ref="H8:L8"/>
     <mergeCell ref="H9:L9"/>
   </mergeCells>
-  <conditionalFormatting sqref="H4:L21">
-    <cfRule type="colorScale" priority="154">
+  <conditionalFormatting sqref="H4:L15">
+    <cfRule type="colorScale" priority="163">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2847,8 +2700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DAE3E00-5AB9-844C-A5F1-B504AC1D8CBB}">
   <dimension ref="B1:N24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -2878,23 +2731,23 @@
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B2" s="32"/>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="62"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="74"/>
       <c r="L2" s="7"/>
     </row>
     <row r="3" spans="2:14" ht="41" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="32"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
       <c r="H3" s="43" t="s">
         <v>28</v>
       </c>
@@ -2910,141 +2763,153 @@
       <c r="B4" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="66" t="s">
+      <c r="E4" s="76"/>
+      <c r="F4" s="78" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="76">
+      <c r="H4" s="88">
         <v>0.84199999999999997</v>
       </c>
-      <c r="I4" s="76"/>
-      <c r="J4" s="77"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="89"/>
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="2:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="65"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="67"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="72">
+      <c r="H5" s="84">
         <v>0.86699999999999999</v>
       </c>
-      <c r="I5" s="72"/>
-      <c r="J5" s="73"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="85"/>
       <c r="L5" s="7"/>
     </row>
     <row r="6" spans="2:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="32"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="66" t="s">
+      <c r="D6" s="77"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="78" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="69">
+      <c r="H6" s="81">
         <v>0.88200000000000001</v>
       </c>
-      <c r="I6" s="69"/>
-      <c r="J6" s="70"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="82"/>
       <c r="L6" s="7"/>
     </row>
     <row r="7" spans="2:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="65"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="67"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="72">
+      <c r="H7" s="84">
         <v>0.92700000000000005</v>
       </c>
-      <c r="I7" s="72"/>
-      <c r="J7" s="73"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="85"/>
       <c r="L7" s="7"/>
     </row>
     <row r="8" spans="2:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D8" s="65"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="66" t="s">
+      <c r="D8" s="77"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="78" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="69">
+      <c r="H8" s="81">
         <v>0.87</v>
       </c>
-      <c r="I8" s="69"/>
-      <c r="J8" s="70"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="82"/>
       <c r="L8" s="7"/>
     </row>
     <row r="9" spans="2:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="65"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="74"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="86"/>
       <c r="G9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="76">
+      <c r="H9" s="88">
         <v>0.96199999999999997</v>
       </c>
-      <c r="I9" s="76"/>
-      <c r="J9" s="77"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="89"/>
       <c r="L9" s="7"/>
     </row>
     <row r="10" spans="2:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="83" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="84"/>
-      <c r="F10" s="85"/>
+      <c r="D10" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="93"/>
+      <c r="F10" s="94"/>
       <c r="G10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="87"/>
+      <c r="H10" s="50">
+        <v>0.499</v>
+      </c>
+      <c r="I10" s="50">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="J10" s="51"/>
       <c r="L10" s="4"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D11" s="65"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="88"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="95"/>
       <c r="G11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="89"/>
+        <v>38</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="J11" s="52"/>
       <c r="L11" s="4"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
     <row r="12" spans="2:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="80"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="91"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="98"/>
       <c r="G12" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="92"/>
-      <c r="I12" s="92"/>
-      <c r="J12" s="93"/>
+        <v>39</v>
+      </c>
+      <c r="H12" s="53">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="I12" s="53">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="J12" s="54"/>
       <c r="L12" s="4"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3060,43 +2925,61 @@
       <c r="N14" s="2"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H15" s="2">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.83499999999999996</v>
+      </c>
       <c r="L15" s="4"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:14" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="39">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="I16" s="39">
+        <v>0.76200000000000001</v>
+      </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="13:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="8:14" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="39">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="I17" s="39">
+        <v>0.96</v>
+      </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="13:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="8:14" x14ac:dyDescent="0.2">
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="13:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="8:14" x14ac:dyDescent="0.2">
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="13:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="8:14" x14ac:dyDescent="0.2">
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="13:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="8:14" x14ac:dyDescent="0.2">
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="13:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="8:14" x14ac:dyDescent="0.2">
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="13:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="8:14" x14ac:dyDescent="0.2">
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="13:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="8:14" x14ac:dyDescent="0.2">
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
@@ -3117,7 +3000,7 @@
     <mergeCell ref="F8:F9"/>
   </mergeCells>
   <conditionalFormatting sqref="H4:J9">
-    <cfRule type="colorScale" priority="161">
+    <cfRule type="colorScale" priority="164">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3129,13 +3012,37 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:J12">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color theme="6" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17:I17">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
         <color rgb="FFFF0000"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+        <color theme="6" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15:I16">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color theme="2" tint="-9.9978637043366805E-2"/>
         <color theme="6" tint="-0.249977111117893"/>
       </colorScale>
     </cfRule>
@@ -3147,10 +3054,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D718D1-05D9-2146-B7ED-D601D310FD08}">
-  <dimension ref="C1:R14"/>
+  <dimension ref="C1:Z17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -3161,11 +3068,11 @@
     <col min="4" max="4" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" style="1" customWidth="1"/>
     <col min="13" max="13" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
@@ -3180,165 +3087,162 @@
     <col min="26" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:18" ht="20" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C2" s="81"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="94" t="s">
+    <row r="1" spans="3:26" ht="20" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C2" s="99"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="105" t="s">
+      <c r="F2" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="110"/>
+      <c r="H2" s="109" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="111"/>
+      <c r="J2" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="100"/>
-      <c r="H2" s="105" t="s">
+      <c r="K2" s="110"/>
+    </row>
+    <row r="3" spans="3:26" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="105"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="44" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="3:26" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="99"/>
-      <c r="J2" s="105" t="s">
+      <c r="D4" s="100"/>
+      <c r="E4" s="59">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="F4" s="60">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="G4" s="60">
+        <v>0.877</v>
+      </c>
+      <c r="H4" s="60">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="I4" s="60">
+        <v>0.92</v>
+      </c>
+      <c r="J4" s="60">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="K4" s="61">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="5" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C5" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="100"/>
-    </row>
-    <row r="3" spans="3:18" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="95"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="101" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="107" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="101" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="103" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="106" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="104"/>
-    </row>
-    <row r="4" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C4" s="81" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="97"/>
-      <c r="E4" s="108">
-        <v>0.50900000000000001</v>
-      </c>
-      <c r="F4" s="109">
-        <v>0.36299999999999999</v>
-      </c>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109">
-        <v>0.52100000000000002</v>
-      </c>
-      <c r="I4" s="109"/>
-      <c r="J4" s="109">
-        <v>0.65700000000000003</v>
-      </c>
-      <c r="K4" s="110"/>
-      <c r="L4" s="104"/>
-    </row>
-    <row r="5" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C5" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="D5" s="101"/>
       <c r="E5" s="46">
         <v>0.84199999999999997</v>
       </c>
-      <c r="F5" s="98">
+      <c r="F5" s="2">
         <v>0.36599999999999999</v>
       </c>
-      <c r="G5" s="98">
+      <c r="G5" s="2">
         <v>0.877</v>
       </c>
-      <c r="H5" s="98">
+      <c r="H5" s="2">
         <v>0.71699999999999997</v>
       </c>
-      <c r="I5" s="98">
+      <c r="I5" s="2">
         <v>0.92</v>
       </c>
-      <c r="J5" s="98">
+      <c r="J5" s="2">
         <v>0.86699999999999999</v>
       </c>
-      <c r="K5" s="111">
+      <c r="K5" s="42">
         <v>0.89700000000000002</v>
       </c>
-      <c r="L5" s="104"/>
-    </row>
-    <row r="6" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C6" s="56"/>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
+    </row>
+    <row r="6" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C6" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="101"/>
       <c r="E6" s="46">
+        <v>0.87</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="K6" s="42">
+        <v>0.94699999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C7" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="101"/>
+      <c r="E7" s="46">
         <v>0.92700000000000005</v>
       </c>
-      <c r="F6" s="98">
+      <c r="F7" s="2">
         <v>0.36299999999999999</v>
       </c>
-      <c r="G6" s="98">
+      <c r="G7" s="2">
         <v>0.94499999999999995</v>
       </c>
-      <c r="H6" s="98">
+      <c r="H7" s="2">
         <v>0.70899999999999996</v>
       </c>
-      <c r="I6" s="98">
+      <c r="I7" s="2">
         <v>0.95499999999999996</v>
       </c>
-      <c r="J6" s="98">
+      <c r="J7" s="2">
         <v>0.9</v>
       </c>
-      <c r="K6" s="42">
+      <c r="K7" s="42">
         <v>0.93500000000000005</v>
       </c>
-      <c r="L6" s="104"/>
-    </row>
-    <row r="7" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C7" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="46">
-        <v>0.87</v>
-      </c>
-      <c r="F7" s="98">
-        <v>0.36299999999999999</v>
-      </c>
-      <c r="G7" s="98">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="H7" s="98">
-        <v>0.70199999999999996</v>
-      </c>
-      <c r="I7" s="98">
-        <v>0.95</v>
-      </c>
-      <c r="J7" s="98">
-        <v>0.85699999999999998</v>
-      </c>
-      <c r="K7" s="42">
-        <v>0.94699999999999995</v>
-      </c>
-      <c r="L7" s="104"/>
-    </row>
-    <row r="8" spans="3:18" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="82"/>
-      <c r="D8" s="9" t="s">
-        <v>12</v>
-      </c>
+    </row>
+    <row r="8" spans="3:26" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="102" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="103"/>
       <c r="E8" s="49">
         <v>0.96199999999999997</v>
       </c>
@@ -3360,62 +3264,233 @@
       <c r="K8" s="40">
         <v>0.94199999999999995</v>
       </c>
-      <c r="L8" s="104"/>
-    </row>
-    <row r="9" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="K9" s="104"/>
-      <c r="L9" s="104"/>
-    </row>
-    <row r="10" spans="3:18" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G10" s="2"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+    </row>
+    <row r="9" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+    </row>
+    <row r="10" spans="3:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G10" s="2">
+        <f>(G4-$E4)/$E4</f>
+        <v>0.72298624754420426</v>
+      </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="I10" s="2">
+        <f>(I4-$E4)/$E4</f>
+        <v>0.80746561886051083</v>
+      </c>
       <c r="J10" s="2"/>
-      <c r="K10" s="98"/>
-      <c r="L10" s="104"/>
-      <c r="R10" s="104"/>
-    </row>
-    <row r="11" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="G11" s="2"/>
+      <c r="K10" s="2">
+        <f>(K4-$E4)/$E4</f>
+        <v>0.80746561886051083</v>
+      </c>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+    </row>
+    <row r="11" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="G11" s="2">
+        <f>(G5-$E5)/$E5</f>
+        <v>4.1567695961995291E-2</v>
+      </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="I11" s="2">
+        <f>(I5-$E5)/$E5</f>
+        <v>9.2636579572446642E-2</v>
+      </c>
       <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="3:18" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G12" s="2"/>
+      <c r="K11" s="2">
+        <f>(K5-$E5)/$E5</f>
+        <v>6.5320665083135457E-2</v>
+      </c>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+    </row>
+    <row r="12" spans="3:26" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G12" s="2">
+        <f t="shared" ref="G12:I14" si="0">(G6-$E6)/$E6</f>
+        <v>6.3218390804597763E-2</v>
+      </c>
       <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="I12" s="2">
+        <f t="shared" si="0"/>
+        <v>9.1954022988505704E-2</v>
+      </c>
       <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="G13" s="2"/>
+      <c r="K12" s="2">
+        <f t="shared" ref="K12" si="1">(K6-$E6)/$E6</f>
+        <v>8.8505747126436732E-2</v>
+      </c>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+    </row>
+    <row r="13" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="G13" s="2">
+        <f t="shared" si="0"/>
+        <v>1.9417475728155238E-2</v>
+      </c>
       <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="I13" s="2">
+        <f t="shared" si="0"/>
+        <v>3.0204962243797102E-2</v>
+      </c>
       <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="G14" s="2"/>
+      <c r="K13" s="2">
+        <f t="shared" ref="K13" si="2">(K7-$E7)/$E7</f>
+        <v>8.6299892125134923E-3</v>
+      </c>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+    </row>
+    <row r="14" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="G14" s="2">
+        <f t="shared" si="0"/>
+        <v>-5.1975051975052021E-3</v>
+      </c>
       <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="I14" s="2">
+        <f t="shared" si="0"/>
+        <v>3.1185031185031213E-3</v>
+      </c>
       <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="K14" s="2">
+        <f t="shared" ref="K14" si="3">(K8-$E8)/$E8</f>
+        <v>-2.0790020790020809E-2</v>
+      </c>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+    </row>
+    <row r="16" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="G16" s="2">
+        <f>AVERAGE(G11:G12)</f>
+        <v>5.2393043383296527E-2</v>
+      </c>
+      <c r="I16" s="2">
+        <f>AVERAGE(I11:I12)</f>
+        <v>9.2295301280476166E-2</v>
+      </c>
+      <c r="K16" s="2">
+        <f>AVERAGE(K11:K12)</f>
+        <v>7.6913206104786094E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G17" s="2">
+        <f>AVERAGE(G13:G14)</f>
+        <v>7.1099852653250181E-3</v>
+      </c>
+      <c r="I17" s="2">
+        <f>AVERAGE(I13:I14)</f>
+        <v>1.6661732681150111E-2</v>
+      </c>
+      <c r="K17" s="2">
+        <f>AVERAGE(K13:K14)</f>
+        <v>-6.0800157887536581E-3</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
     <mergeCell ref="C2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
   </mergeCells>
-  <conditionalFormatting sqref="E4:K8">
+  <conditionalFormatting sqref="E4:K6 E8:K8">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color theme="6" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7:K7">
     <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color theme="6" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P8">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/visualizations/union_results.xlsx
+++ b/visualizations/union_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-integration-github/visualizations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C81797-C517-7C4E-AB36-D0C637F29110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F68EA3-74DE-3F43-9E71-3293F3EAA370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67200" yWindow="4880" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
+    <workbookView xWindow="67200" yWindow="7480" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="heuristics" sheetId="10" r:id="rId1"/>
@@ -637,6 +637,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -661,12 +676,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -685,9 +694,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -695,12 +701,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -727,6 +727,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -738,30 +762,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1704,7 +1704,7 @@
   <dimension ref="B1:U29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" activeCellId="1" sqref="J14:K14 J17:K17"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -1738,27 +1738,27 @@
     </row>
     <row r="2" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B2" s="32"/>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71" t="s">
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="74"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="79"/>
       <c r="N2" s="7"/>
     </row>
     <row r="3" spans="2:21" ht="41" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="32"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
       <c r="H3" s="41" t="s">
         <v>35</v>
       </c>
@@ -1780,124 +1780,124 @@
       <c r="B4" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="76"/>
-      <c r="F4" s="78" t="s">
+      <c r="E4" s="81"/>
+      <c r="F4" s="72" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="80">
+      <c r="H4" s="83">
         <v>0.84199999999999997</v>
       </c>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="82"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="85"/>
       <c r="N4" s="7"/>
     </row>
     <row r="5" spans="2:21" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="77"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="79"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="74"/>
       <c r="G5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="83">
+      <c r="H5" s="86">
         <v>0.86699999999999999</v>
       </c>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="85"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="88"/>
       <c r="N5" s="7"/>
     </row>
     <row r="6" spans="2:21" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="32"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="78" t="s">
+      <c r="D6" s="82"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="72" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="80">
+      <c r="H6" s="83">
         <v>0.88200000000000001</v>
       </c>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="82"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="85"/>
       <c r="N6" s="7"/>
     </row>
     <row r="7" spans="2:21" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="77"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="79"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="74"/>
       <c r="G7" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="83">
+      <c r="H7" s="86">
         <v>0.92700000000000005</v>
       </c>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="85"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="88"/>
       <c r="N7" s="7"/>
     </row>
     <row r="8" spans="2:21" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D8" s="77"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="78" t="s">
+      <c r="D8" s="82"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="72" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="80">
+      <c r="H8" s="83">
         <v>0.87</v>
       </c>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="82"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="85"/>
       <c r="N8" s="7"/>
     </row>
     <row r="9" spans="2:21" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="77"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="86"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="73"/>
       <c r="G9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="87">
+      <c r="H9" s="89">
         <v>0.96199999999999997</v>
       </c>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="89"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="91"/>
       <c r="N9" s="7"/>
     </row>
     <row r="10" spans="2:21" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="78" t="s">
+      <c r="D10" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="78" t="s">
+      <c r="E10" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="90" t="s">
+      <c r="F10" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="91"/>
+      <c r="G10" s="71"/>
       <c r="H10" s="45">
         <v>0.436</v>
       </c>
@@ -1937,9 +1937,9 @@
       </c>
     </row>
     <row r="11" spans="2:21" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86" t="s">
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73" t="s">
         <v>6</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -1984,9 +1984,9 @@
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
       <c r="G12" s="1" t="s">
         <v>14</v>
       </c>
@@ -2009,9 +2009,9 @@
       <c r="P12" s="21"/>
     </row>
     <row r="13" spans="2:21" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="86"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
       <c r="G13" s="9" t="s">
         <v>22</v>
       </c>
@@ -2034,14 +2034,14 @@
       <c r="P13" s="6"/>
     </row>
     <row r="14" spans="2:21" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="86"/>
-      <c r="E14" s="78" t="s">
+      <c r="D14" s="73"/>
+      <c r="E14" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="90" t="s">
+      <c r="F14" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="91"/>
+      <c r="G14" s="71"/>
       <c r="H14" s="46">
         <v>0.41399999999999998</v>
       </c>
@@ -2061,9 +2061,9 @@
       <c r="P14" s="6"/>
     </row>
     <row r="15" spans="2:21" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86" t="s">
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73" t="s">
         <v>6</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -2088,9 +2088,9 @@
       <c r="P15" s="6"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
       <c r="G16" s="1" t="s">
         <v>14</v>
       </c>
@@ -2121,9 +2121,9 @@
       </c>
     </row>
     <row r="17" spans="4:19" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
       <c r="G17" s="9" t="s">
         <v>22</v>
       </c>
@@ -2206,13 +2206,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="D10:D17"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="F10:G10"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="D4:E9"/>
@@ -2225,6 +2218,13 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="H8:L8"/>
     <mergeCell ref="H9:L9"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="D10:D17"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="F10:G10"/>
   </mergeCells>
   <conditionalFormatting sqref="H4:L17">
     <cfRule type="colorScale" priority="157">
@@ -2248,7 +2248,7 @@
   <dimension ref="B1:V27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -2282,27 +2282,27 @@
     </row>
     <row r="2" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B2" s="32"/>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71" t="s">
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="74"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="79"/>
       <c r="N2" s="7"/>
     </row>
     <row r="3" spans="2:22" ht="41" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="32"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
       <c r="H3" s="41" t="s">
         <v>35</v>
       </c>
@@ -2324,121 +2324,121 @@
       <c r="B4" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="76"/>
-      <c r="F4" s="78" t="s">
+      <c r="E4" s="81"/>
+      <c r="F4" s="72" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="88">
+      <c r="H4" s="90">
         <v>0.84199999999999997</v>
       </c>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="89"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="91"/>
       <c r="N4" s="7"/>
     </row>
     <row r="5" spans="2:22" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="77"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="79"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="74"/>
       <c r="G5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="84">
+      <c r="H5" s="87">
         <v>0.86699999999999999</v>
       </c>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="85"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="88"/>
       <c r="N5" s="7"/>
     </row>
     <row r="6" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="32"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="78" t="s">
+      <c r="D6" s="82"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="72" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="81">
+      <c r="H6" s="84">
         <v>0.88200000000000001</v>
       </c>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="82"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="85"/>
       <c r="N6" s="7"/>
     </row>
     <row r="7" spans="2:22" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="77"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="79"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="74"/>
       <c r="G7" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="84">
+      <c r="H7" s="87">
         <v>0.92700000000000005</v>
       </c>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="85"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="88"/>
       <c r="N7" s="7"/>
     </row>
     <row r="8" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D8" s="77"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="78" t="s">
+      <c r="D8" s="82"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="72" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="81">
+      <c r="H8" s="84">
         <v>0.87</v>
       </c>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="82"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="85"/>
       <c r="N8" s="7"/>
     </row>
     <row r="9" spans="2:22" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="77"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="86"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="73"/>
       <c r="G9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="88">
+      <c r="H9" s="90">
         <v>0.96199999999999997</v>
       </c>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="89"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="91"/>
       <c r="N9" s="7"/>
     </row>
     <row r="10" spans="2:22" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D10" s="78" t="s">
+      <c r="D10" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="78" t="s">
+      <c r="E10" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="78" t="s">
+      <c r="F10" s="72" t="s">
         <v>7</v>
       </c>
       <c r="G10" s="12" t="s">
@@ -2469,9 +2469,9 @@
       <c r="V10" s="2"/>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
       <c r="G11" s="1" t="s">
         <v>14</v>
       </c>
@@ -2500,9 +2500,9 @@
       <c r="U11" s="2"/>
     </row>
     <row r="12" spans="2:22" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="86"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
       <c r="G12" s="9" t="s">
         <v>22</v>
       </c>
@@ -2526,11 +2526,11 @@
       <c r="P12" s="8"/>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="D13" s="86"/>
-      <c r="E13" s="78" t="s">
+      <c r="D13" s="73"/>
+      <c r="E13" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="86" t="s">
+      <c r="F13" s="73" t="s">
         <v>7</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -2556,9 +2556,9 @@
       <c r="P13" s="8"/>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
       <c r="G14" s="1" t="s">
         <v>14</v>
       </c>
@@ -2582,9 +2582,9 @@
       <c r="P14" s="8"/>
     </row>
     <row r="15" spans="2:22" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="86"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
       <c r="G15" s="9" t="s">
         <v>22</v>
       </c>
@@ -2661,11 +2661,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D10:D15"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="E13:E15"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="D4:E9"/>
@@ -2678,6 +2673,11 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="H8:L8"/>
     <mergeCell ref="H9:L9"/>
+    <mergeCell ref="D10:D15"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="E13:E15"/>
   </mergeCells>
   <conditionalFormatting sqref="H4:L15">
     <cfRule type="colorScale" priority="163">
@@ -2701,7 +2701,7 @@
   <dimension ref="B1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -2731,23 +2731,23 @@
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B2" s="32"/>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="74"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="79"/>
       <c r="L2" s="7"/>
     </row>
     <row r="3" spans="2:14" ht="41" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="32"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
       <c r="H3" s="43" t="s">
         <v>28</v>
       </c>
@@ -2763,99 +2763,99 @@
       <c r="B4" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="76"/>
-      <c r="F4" s="78" t="s">
+      <c r="E4" s="81"/>
+      <c r="F4" s="72" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="88">
+      <c r="H4" s="90">
         <v>0.84199999999999997</v>
       </c>
-      <c r="I4" s="88"/>
-      <c r="J4" s="89"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="91"/>
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="2:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="77"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="79"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="74"/>
       <c r="G5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="84">
+      <c r="H5" s="87">
         <v>0.86699999999999999</v>
       </c>
-      <c r="I5" s="84"/>
-      <c r="J5" s="85"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="88"/>
       <c r="L5" s="7"/>
     </row>
     <row r="6" spans="2:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="32"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="78" t="s">
+      <c r="D6" s="82"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="72" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="81">
+      <c r="H6" s="84">
         <v>0.88200000000000001</v>
       </c>
-      <c r="I6" s="81"/>
-      <c r="J6" s="82"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="85"/>
       <c r="L6" s="7"/>
     </row>
     <row r="7" spans="2:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="77"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="79"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="74"/>
       <c r="G7" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="84">
+      <c r="H7" s="87">
         <v>0.92700000000000005</v>
       </c>
-      <c r="I7" s="84"/>
-      <c r="J7" s="85"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="88"/>
       <c r="L7" s="7"/>
     </row>
     <row r="8" spans="2:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D8" s="77"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="78" t="s">
+      <c r="D8" s="82"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="72" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="81">
+      <c r="H8" s="84">
         <v>0.87</v>
       </c>
-      <c r="I8" s="81"/>
-      <c r="J8" s="82"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="85"/>
       <c r="L8" s="7"/>
     </row>
     <row r="9" spans="2:14" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="77"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="86"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="73"/>
       <c r="G9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="88">
+      <c r="H9" s="90">
         <v>0.96199999999999997</v>
       </c>
-      <c r="I9" s="88"/>
-      <c r="J9" s="89"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="91"/>
       <c r="L9" s="7"/>
     </row>
     <row r="10" spans="2:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -2879,8 +2879,8 @@
       <c r="N10" s="2"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D11" s="77"/>
-      <c r="E11" s="76"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="81"/>
       <c r="F11" s="95"/>
       <c r="G11" s="1" t="s">
         <v>38</v>
@@ -2999,6 +2999,30 @@
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="F8:F9"/>
   </mergeCells>
+  <conditionalFormatting sqref="H15:I16">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+        <color theme="6" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17:I17">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+        <color theme="6" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H4:J9">
     <cfRule type="colorScale" priority="164">
       <colorScale>
@@ -3023,30 +3047,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17:I17">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-        <color theme="6" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15:I16">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-        <color theme="6" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -3054,10 +3054,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D718D1-05D9-2146-B7ED-D601D310FD08}">
-  <dimension ref="C1:Z17"/>
+  <dimension ref="C1:Z24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -3090,27 +3090,27 @@
     <row r="1" spans="3:26" ht="20" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C2" s="99"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="107" t="s">
+      <c r="D2" s="100"/>
+      <c r="E2" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="109" t="s">
+      <c r="F2" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="110"/>
-      <c r="H2" s="109" t="s">
+      <c r="G2" s="106"/>
+      <c r="H2" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="111"/>
-      <c r="J2" s="109" t="s">
+      <c r="I2" s="107"/>
+      <c r="J2" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="110"/>
+      <c r="K2" s="106"/>
     </row>
     <row r="3" spans="3:26" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="105"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="108"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="104"/>
       <c r="F3" s="55" t="s">
         <v>38</v>
       </c>
@@ -3134,7 +3134,7 @@
       <c r="C4" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="100"/>
+      <c r="D4" s="108"/>
       <c r="E4" s="59">
         <v>0.50900000000000001</v>
       </c>
@@ -3161,7 +3161,7 @@
       <c r="C5" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="101"/>
+      <c r="D5" s="109"/>
       <c r="E5" s="46">
         <v>0.84199999999999997</v>
       </c>
@@ -3188,7 +3188,7 @@
       <c r="C6" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="101"/>
+      <c r="D6" s="109"/>
       <c r="E6" s="46">
         <v>0.87</v>
       </c>
@@ -3215,7 +3215,7 @@
       <c r="C7" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="101"/>
+      <c r="D7" s="109"/>
       <c r="E7" s="46">
         <v>0.92700000000000005</v>
       </c>
@@ -3239,10 +3239,10 @@
       </c>
     </row>
     <row r="8" spans="3:26" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="102" t="s">
+      <c r="C8" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="103"/>
+      <c r="D8" s="111"/>
       <c r="E8" s="49">
         <v>0.96199999999999997</v>
       </c>
@@ -3452,18 +3452,24 @@
         <v>-6.0800157887536581E-3</v>
       </c>
     </row>
+    <row r="24" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="H24" s="2">
+        <f>AVERAGE(G16:K16)</f>
+        <v>7.3867183589519603E-2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="C2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:K6 E8:K8">
     <cfRule type="colorScale" priority="4">

--- a/visualizations/union_results.xlsx
+++ b/visualizations/union_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-spatial-data-integration-github/visualizations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F68EA3-74DE-3F43-9E71-3293F3EAA370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1C9039-2983-E040-B5D9-557C23267951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67200" yWindow="7480" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
+    <workbookView xWindow="67200" yWindow="10340" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{2DDB8916-A173-954A-83DE-6DB921889B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="heuristics" sheetId="10" r:id="rId1"/>
@@ -1101,7 +1101,7 @@
   <dimension ref="B2:T34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -1703,8 +1703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD0E853E-51FD-9145-8DA3-30D891509AAC}">
   <dimension ref="B1:U29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11:U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -2248,7 +2248,7 @@
   <dimension ref="B1:V27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+      <selection activeCell="R12" sqref="R12:V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -2494,10 +2494,26 @@
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
       <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
+      <c r="R11" s="2">
+        <f>AVERAGE(H10:H12)</f>
+        <v>0.57900000000000007</v>
+      </c>
+      <c r="S11" s="2">
+        <f t="shared" ref="S11:V11" si="0">AVERAGE(I10:I12)</f>
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="T11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.77266666666666672</v>
+      </c>
+      <c r="U11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.8696666666666667</v>
+      </c>
+      <c r="V11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.8846666666666666</v>
+      </c>
     </row>
     <row r="12" spans="2:22" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D12" s="73"/>
@@ -2524,6 +2540,26 @@
       <c r="N12" s="4"/>
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
+      <c r="R12" s="2">
+        <f>AVERAGE(H13:H15)</f>
+        <v>0.47100000000000003</v>
+      </c>
+      <c r="S12" s="2">
+        <f t="shared" ref="S12:V12" si="1">AVERAGE(I13:I15)</f>
+        <v>0.68066666666666664</v>
+      </c>
+      <c r="T12" s="2">
+        <f t="shared" si="1"/>
+        <v>0.81866666666666665</v>
+      </c>
+      <c r="U12" s="2">
+        <f t="shared" si="1"/>
+        <v>0.90166666666666673</v>
+      </c>
+      <c r="V12" s="2">
+        <f t="shared" si="1"/>
+        <v>0.86399999999999999</v>
+      </c>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.2">
       <c r="D13" s="73"/>
@@ -2700,7 +2736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DAE3E00-5AB9-844C-A5F1-B504AC1D8CBB}">
   <dimension ref="B1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
